--- a/Networks/Parte2/Excel/Parte2-Network8.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network8.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.03090626600474392</v>
+        <v>-0.382126988660822</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7690226543498463</v>
+        <v>-0.6681233342238342</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.598307744179647</v>
+        <v>-0.4033999489948966</v>
       </c>
       <c r="C3" t="n">
-        <v>1.044387842317935</v>
+        <v>-1.757645729525741</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03390639840635486</v>
+        <v>-0.7855548477543319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.648914842609764</v>
+        <v>0.5634447424687831</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.084544134195823</v>
+        <v>-0.5836999949484416</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.168043814850062</v>
+        <v>-0.306531637635053</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.449144412105855</v>
+        <v>-0.7818529999851362</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6896931947970725</v>
+        <v>0.2187089838408385</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.045794192765879</v>
+        <v>-1.229024437938767</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1164778124570641</v>
+        <v>0.9610437075293694</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network8.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network8.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.382126988660822</v>
+        <v>-0.3215772883448896</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6681233342238342</v>
+        <v>-0.8878702236976402</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4033999489948966</v>
+        <v>-1.095000745142599</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.757645729525741</v>
+        <v>0.5409518889988462</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7855548477543319</v>
+        <v>-1.079928076358642</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5634447424687831</v>
+        <v>1.245558183491608</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5836999949484416</v>
+        <v>-1.405220245303278</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.306531637635053</v>
+        <v>0.2984837608913679</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7818529999851362</v>
+        <v>-1.101721460397068</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2187089838408385</v>
+        <v>-0.7389973702544742</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.229024437938767</v>
+        <v>1.285324352609827</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9610437075293694</v>
+        <v>-0.3118840604879607</v>
       </c>
     </row>
   </sheetData>
